--- a/biology/Botanique/Sergueï_Iouzeptchouk/Sergueï_Iouzeptchouk.xlsx
+++ b/biology/Botanique/Sergueï_Iouzeptchouk/Sergueï_Iouzeptchouk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Iouzeptchouk</t>
+          <t>Sergueï_Iouzeptchouk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergueï Vassilievitch Iouzeptchouk (en russe : Сергей Васильевич Юзепчук, en transcription anglaise Sergei Vasilievich Juzepczuk), né le 28 janvier 1893 à Moscou, mort le 8 janvier 1959 à Rīga (république socialiste soviétique de Lettonie), est un botaniste soviétique qui fut un spécialiste de la pomme de terre et qui réalisa des expéditions de collecte en Amérique du Sud à la recherche de germoplasme de Solanaceae. Il étudia également des plantes à fleurs originaires de Crimée, comme Eremurus thiodanthus. Il a eu parmi ses élèves Moïsseï Kirpitchnikov.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Iouzeptchouk</t>
+          <t>Sergueï_Iouzeptchouk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Quelques espèces décrites par Juzepczuk</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Solanum phureja Juz. et Bukasov[1] ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Solanum phureja Juz. et Bukasov ;
 Solanum acroglossum Juz.
-Solanum andigenum Juz. &amp; Bukasov[2], espèce reclassée depuis en sous-espèce de la pomme de terre cultivée, sous le nom de  Solanum tuberosum subsp. andigenum (Juz. et Bukasov) Hawkes  ;
+Solanum andigenum Juz. &amp; Bukasov, espèce reclassée depuis en sous-espèce de la pomme de terre cultivée, sous le nom de  Solanum tuberosum subsp. andigenum (Juz. et Bukasov) Hawkes  ;
 Dryas hookeriana Juz. 1929, synonyme de Dryas octopetala var. hookerana (Juz. ) Hulten.</t>
         </is>
       </c>
